--- a/Homework02a/FirstTestReport.xlsx
+++ b/Homework02a/FirstTestReport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\SSW567\Homework02a\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8A77646-71A3-410A-BA1C-735D46FEC40E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9180242-DBDD-4177-81BC-64E18F09855E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>Test ID</t>
   </si>
@@ -76,6 +76,12 @@
   </si>
   <si>
     <t>InvalidInput, None, none</t>
+  </si>
+  <si>
+    <t>Scalene, Scalene, Right</t>
+  </si>
+  <si>
+    <t>NotATriangle, Equilateral</t>
   </si>
 </sst>
 </file>
@@ -128,12 +134,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -143,7 +148,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -429,7 +434,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -442,100 +447,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6" t="s">
+      <c r="C5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6" t="s">
+      <c r="C6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" t="s">
         <v>10</v>
       </c>
     </row>
